--- a/data/mall-cloud-alibaba/coupon-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/coupon-server_structure.xlsx
@@ -285,13 +285,43 @@
     <t>couponService</t>
   </si>
   <si>
+    <t>advertiseMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsHomeAdvertiseMapper</t>
+  </si>
+  <si>
+    <t>promotionSessionMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsFlashPromotionSessionMapper</t>
+  </si>
+  <si>
+    <t>couponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>flashPromotionMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsFlashPromotionMapper</t>
+  </si>
+  <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
     <t>couponHistoryDao</t>
   </si>
   <si>
-    <t>advertiseMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsHomeAdvertiseMapper</t>
+    <t>productFeign</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.ProductFeign</t>
   </si>
   <si>
     <t>couponHistoryMapper</t>
@@ -300,40 +330,10 @@
     <t>com.mtcarpenter.mall.mapper.SmsCouponHistoryMapper</t>
   </si>
   <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
     <t>couponProductRelationMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>couponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>promotionSessionMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsFlashPromotionSessionMapper</t>
-  </si>
-  <si>
-    <t>productFeign</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.ProductFeign</t>
-  </si>
-  <si>
-    <t>flashPromotionMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsFlashPromotionMapper</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3339,7 +3339,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -3347,13 +3347,13 @@
         <v>58</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -3361,13 +3361,13 @@
         <v>58</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -3375,13 +3375,13 @@
         <v>58</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -3389,13 +3389,13 @@
         <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3403,13 +3403,13 @@
         <v>58</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
